--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_08_beg.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_08_beg.xlsx
@@ -728,7 +728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mostima"]   until your old school you accidentally blew up unfurls a big banner the day you leave Laterano, "Good luck in Lungmen, Exusiai!"
+    <t xml:space="preserve">[name="Mostima"]   until your old school you accidentally blew up unfurls a big banner the day you leave Laterano, 'Good luck in Lungmen, Exusiai!'
 </t>
   </si>
   <si>
